--- a/out/production/DigitalAutomation/TestData.xlsx
+++ b/out/production/DigitalAutomation/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="646"/>
   </bookViews>
   <sheets>
     <sheet name="Environment" sheetId="7" r:id="rId1"/>
@@ -161,10 +161,10 @@
     <t xml:space="preserve"> Cheethams        </t>
   </si>
   <si>
-    <t>fd17</t>
-  </si>
-  <si>
-    <t>fso17</t>
+    <t>fd12</t>
+  </si>
+  <si>
+    <t>fso12</t>
   </si>
 </sst>
 </file>
@@ -683,7 +683,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:I7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -773,7 +773,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E3"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -817,7 +817,7 @@
       </c>
       <c r="C2" s="5" t="str">
         <f>CONCATENATE(D2,".",E2,"@coopdigital.co.uk")</f>
-        <v>edinburgh.fd17@coopdigital.co.uk</v>
+        <v>edinburgh.fd12@coopdigital.co.uk</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>8</v>
@@ -840,7 +840,7 @@
       </c>
       <c r="C3" s="5" t="str">
         <f>CONCATENATE(D3,".",E3,"@coopdigital.co.uk")</f>
-        <v>bolton.fd17@coopdigital.co.uk</v>
+        <v>bolton.fd12@coopdigital.co.uk</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>9</v>
@@ -867,7 +867,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -907,7 +907,7 @@
       </c>
       <c r="B2" s="5" t="str">
         <f>CONCATENATE(C2,".",D2,"@coopdigital.co.uk")</f>
-        <v>edintestuser.fd17@coopdigital.co.uk</v>
+        <v>edintestuser.fd12@coopdigital.co.uk</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>17</v>
@@ -929,7 +929,7 @@
       </c>
       <c r="B3" s="5" t="str">
         <f t="shared" ref="B3" si="0">CONCATENATE(C3,".",D3,"@coopdigital.co.uk")</f>
-        <v>edintestuser.fso17@coopdigital.co.uk</v>
+        <v>edintestuser.fso12@coopdigital.co.uk</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>17</v>
@@ -956,7 +956,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -994,7 +994,7 @@
       </c>
       <c r="B2" s="5" t="str">
         <f>CONCATENATE(C2,".",D2,"@coopdigital.co.uk")</f>
-        <v>boltontestuser.fd17@coopdigital.co.uk</v>
+        <v>boltontestuser.fd12@coopdigital.co.uk</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>22</v>
@@ -1016,7 +1016,7 @@
       </c>
       <c r="B3" s="5" t="str">
         <f t="shared" ref="B3" si="0">CONCATENATE(C3,".",D3,"@coopdigital.co.uk")</f>
-        <v>boltontestuser.fso17@coopdigital.co.uk</v>
+        <v>boltontestuser.fso12@coopdigital.co.uk</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>22</v>
@@ -1070,11 +1070,11 @@
     <row r="2" spans="1:3">
       <c r="A2" s="4" t="str">
         <f>EdinNewUsers!B2</f>
-        <v>edintestuser.fd17@coopdigital.co.uk</v>
+        <v>edintestuser.fd12@coopdigital.co.uk</v>
       </c>
       <c r="B2" s="4" t="str">
         <f>EdinNewUsers!B3</f>
-        <v>edintestuser.fso17@coopdigital.co.uk</v>
+        <v>edintestuser.fso12@coopdigital.co.uk</v>
       </c>
       <c r="C2" s="4" t="str">
         <f>Environment!B7</f>
@@ -1084,11 +1084,11 @@
     <row r="3" spans="1:3">
       <c r="A3" s="4" t="str">
         <f>BoltonNewuser!B2</f>
-        <v>boltontestuser.fd17@coopdigital.co.uk</v>
+        <v>boltontestuser.fd12@coopdigital.co.uk</v>
       </c>
       <c r="B3" s="4" t="str">
         <f>BoltonNewuser!B3</f>
-        <v>boltontestuser.fso17@coopdigital.co.uk</v>
+        <v>boltontestuser.fso12@coopdigital.co.uk</v>
       </c>
       <c r="C3" s="4" t="str">
         <f>Environment!B7</f>
@@ -1138,8 +1138,8 @@
   </sheetPr>
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="B2" s="4" t="str">
         <f>EdinNewUsers!B2</f>
-        <v>edintestuser.fd17@coopdigital.co.uk</v>
+        <v>edintestuser.fd12@coopdigital.co.uk</v>
       </c>
       <c r="C2" s="4" t="str">
         <f>EdinNewUsers!C2</f>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="D2" s="4" t="str">
         <f>EdinNewUsers!D2</f>
-        <v>fd17</v>
+        <v>fd12</v>
       </c>
       <c r="E2" s="4" t="str">
         <f>EdinNewUsers!E2</f>
@@ -1206,7 +1206,7 @@
       </c>
       <c r="B3" s="4" t="str">
         <f>EdinNewUsers!B3</f>
-        <v>edintestuser.fso17@coopdigital.co.uk</v>
+        <v>edintestuser.fso12@coopdigital.co.uk</v>
       </c>
       <c r="C3" s="4" t="str">
         <f>EdinNewUsers!C3</f>
@@ -1214,7 +1214,7 @@
       </c>
       <c r="D3" s="4" t="str">
         <f>EdinNewUsers!D3</f>
-        <v>fso17</v>
+        <v>fso12</v>
       </c>
       <c r="E3" s="4" t="str">
         <f>EdinNewUsers!E3</f>
@@ -1232,7 +1232,7 @@
       </c>
       <c r="B4" s="4" t="str">
         <f>BoltonNewuser!B2</f>
-        <v>boltontestuser.fd17@coopdigital.co.uk</v>
+        <v>boltontestuser.fd12@coopdigital.co.uk</v>
       </c>
       <c r="C4" s="4" t="str">
         <f>BoltonNewuser!C2</f>
@@ -1240,7 +1240,7 @@
       </c>
       <c r="D4" s="4" t="str">
         <f>BoltonNewuser!D2</f>
-        <v>fd17</v>
+        <v>fd12</v>
       </c>
       <c r="E4" s="4" t="str">
         <f>BoltonNewuser!E2</f>
@@ -1258,7 +1258,7 @@
       </c>
       <c r="B5" s="4" t="str">
         <f>BoltonNewuser!B3</f>
-        <v>boltontestuser.fso17@coopdigital.co.uk</v>
+        <v>boltontestuser.fso12@coopdigital.co.uk</v>
       </c>
       <c r="C5" s="4" t="str">
         <f>BoltonNewuser!C3</f>
@@ -1266,7 +1266,7 @@
       </c>
       <c r="D5" s="4" t="str">
         <f>BoltonNewuser!D3</f>
-        <v>fso17</v>
+        <v>fso12</v>
       </c>
       <c r="E5" s="4" t="str">
         <f>BoltonNewuser!E3</f>
